--- a/JohnGroupB_codebook.xlsx
+++ b/JohnGroupB_codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\Epidem207_JohnB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A694A8E-2277-4565-92F2-B435171E31A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15E87C7-D101-4ADC-88DF-DE9B9A0E6EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22268" yWindow="3927" windowWidth="19205" windowHeight="11992" xr2:uid="{5AA09296-A763-43D7-A9CC-027B07E2A066}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="33749" windowHeight="18471" xr2:uid="{5AA09296-A763-43D7-A9CC-027B07E2A066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="181">
   <si>
     <t>Variable Name</t>
   </si>
@@ -273,12 +273,6 @@
     <t>prsn_time</t>
   </si>
   <si>
-    <t>Person-Time (Continuous)</t>
-  </si>
-  <si>
-    <t>Amount of person-time contributed to the study by the subject. Tentative unit: Person-days</t>
-  </si>
-  <si>
     <t>151-8035</t>
   </si>
   <si>
@@ -559,6 +553,30 @@
   </si>
   <si>
     <t>(1448.02)</t>
+  </si>
+  <si>
+    <t>prsn_time_yrs</t>
+  </si>
+  <si>
+    <t>Person-Time (Continuous, days)</t>
+  </si>
+  <si>
+    <t>Person-Time (Continuous, years)</t>
+  </si>
+  <si>
+    <t>Amount of person-time contributed to the study by the subject. Unit: Person-years</t>
+  </si>
+  <si>
+    <t>Amount of person-time contributed to the study by the subject. Unit: Person-days</t>
+  </si>
+  <si>
+    <t>0-22</t>
+  </si>
+  <si>
+    <t>(20.66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.97) </t>
   </si>
 </sst>
 </file>
@@ -681,7 +699,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
@@ -724,9 +742,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -754,27 +769,84 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -793,86 +865,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1190,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A63EF36-1D0A-4097-979E-ABCAB74AADD1}">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D43" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1232,29 +1265,29 @@
         <v>4</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="66" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -1268,12 +1301,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="49"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="4" t="s">
         <v>30</v>
       </c>
@@ -1285,12 +1318,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="50"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="8" t="s">
         <v>31</v>
       </c>
@@ -1323,30 +1356,30 @@
       <c r="G5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>172</v>
+      <c r="H5" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="66" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -1360,12 +1393,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="49"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1377,12 +1410,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="49"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="3" t="s">
         <v>34</v>
       </c>
@@ -1394,12 +1427,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="49"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="3" t="s">
         <v>35</v>
       </c>
@@ -1411,12 +1444,12 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="49"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="3" t="s">
         <v>36</v>
       </c>
@@ -1428,12 +1461,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="50"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="8" t="s">
         <v>37</v>
       </c>
@@ -1445,22 +1478,22 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="60" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="15" t="s">
@@ -1474,12 +1507,12 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="57"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="17" t="s">
         <v>45</v>
       </c>
@@ -1491,12 +1524,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="57"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="17" t="s">
         <v>46</v>
       </c>
@@ -1508,12 +1541,12 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="57"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="61"/>
       <c r="G15" s="17" t="s">
         <v>47</v>
       </c>
@@ -1525,12 +1558,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="57"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="17" t="s">
         <v>48</v>
       </c>
@@ -1542,12 +1575,12 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="57"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="61"/>
       <c r="G17" s="17" t="s">
         <v>49</v>
       </c>
@@ -1559,12 +1592,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="57"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="17" t="s">
         <v>50</v>
       </c>
@@ -1576,12 +1609,12 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="58"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="18" t="s">
         <v>44</v>
       </c>
@@ -1593,22 +1626,22 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="57" t="s">
         <v>53</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -1622,12 +1655,12 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="55"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="8" t="s">
         <v>76</v>
       </c>
@@ -1639,22 +1672,22 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="60" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="15" t="s">
@@ -1668,12 +1701,12 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="57"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="17" t="s">
         <v>60</v>
       </c>
@@ -1685,12 +1718,12 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="58"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="18" t="s">
         <v>61</v>
       </c>
@@ -1702,22 +1735,22 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="54" t="s">
+      <c r="F25" s="57" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -1731,12 +1764,12 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="59"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="3" t="s">
         <v>66</v>
       </c>
@@ -1748,12 +1781,12 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="55"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="59"/>
       <c r="G27" s="8" t="s">
         <v>67</v>
       </c>
@@ -1775,7 +1808,7 @@
         <v>70</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>7</v>
@@ -1786,56 +1819,56 @@
       <c r="G28" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="37" t="s">
+      <c r="I28" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="69" t="s">
+      <c r="F29" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="29">
         <v>3984</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="29">
         <v>98.91</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="31" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="31">
         <v>573</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="32">
         <v>1.0900000000000001</v>
       </c>
     </row>
@@ -1844,10 +1877,10 @@
         <v>78</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>22</v>
@@ -1856,1167 +1889,1190 @@
         <v>7</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="44" t="s">
+      <c r="H31" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="33" customFormat="1" ht="20.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="I31" s="44" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="70" t="s">
+      <c r="B32" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32" s="82" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="69" t="s">
+      <c r="F33" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="G32" t="s">
-        <v>130</v>
-      </c>
-      <c r="H32">
+      <c r="H33" s="2">
         <v>2203</v>
       </c>
-      <c r="I32">
+      <c r="I33" s="2">
         <v>54.69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="71"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" t="s">
-        <v>131</v>
-      </c>
-      <c r="H33">
-        <v>374</v>
-      </c>
-      <c r="I33">
-        <v>16.73</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="71"/>
       <c r="B34" s="71"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="56"/>
       <c r="E34" s="73"/>
       <c r="F34" s="73"/>
-      <c r="G34" t="s">
-        <v>132</v>
-      </c>
-      <c r="H34">
-        <v>383</v>
-      </c>
-      <c r="I34">
-        <v>9.51</v>
+      <c r="G34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" s="2">
+        <v>374</v>
+      </c>
+      <c r="I34" s="2">
+        <v>16.73</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="71"/>
       <c r="B35" s="71"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="73"/>
       <c r="F35" s="73"/>
-      <c r="G35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H35">
-        <v>228</v>
-      </c>
-      <c r="I35">
-        <v>5.66</v>
+      <c r="G35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="2">
+        <v>383</v>
+      </c>
+      <c r="I35" s="2">
+        <v>9.51</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="71"/>
       <c r="B36" s="71"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="56"/>
       <c r="E36" s="73"/>
       <c r="F36" s="73"/>
-      <c r="G36" t="s">
-        <v>134</v>
-      </c>
-      <c r="H36">
-        <v>93</v>
-      </c>
-      <c r="I36">
-        <v>2.31</v>
+      <c r="G36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="2">
+        <v>228</v>
+      </c>
+      <c r="I36" s="2">
+        <v>5.66</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="71"/>
       <c r="B37" s="71"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="73"/>
       <c r="F37" s="73"/>
-      <c r="G37" t="s">
-        <v>135</v>
-      </c>
-      <c r="H37">
-        <v>125</v>
-      </c>
-      <c r="I37">
-        <v>3.1</v>
+      <c r="G37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="2">
+        <v>93</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2.31</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="71"/>
       <c r="B38" s="71"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="56"/>
       <c r="E38" s="73"/>
       <c r="F38" s="73"/>
-      <c r="G38" t="s">
-        <v>136</v>
-      </c>
-      <c r="H38">
-        <v>84</v>
-      </c>
-      <c r="I38">
-        <v>2.09</v>
+      <c r="G38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" s="2">
+        <v>125</v>
+      </c>
+      <c r="I38" s="2">
+        <v>3.1</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="71"/>
       <c r="B39" s="71"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="73"/>
       <c r="F39" s="73"/>
-      <c r="G39" t="s">
-        <v>137</v>
-      </c>
-      <c r="H39">
-        <v>14</v>
-      </c>
-      <c r="I39">
-        <v>0.35</v>
+      <c r="G39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39" s="2">
+        <v>84</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2.09</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="71"/>
       <c r="B40" s="71"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="73"/>
       <c r="F40" s="73"/>
-      <c r="G40" t="s">
-        <v>138</v>
-      </c>
-      <c r="H40">
-        <v>16</v>
-      </c>
-      <c r="I40">
-        <v>0.4</v>
+      <c r="G40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="2">
+        <v>14</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.35</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="71"/>
       <c r="B41" s="71"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="73"/>
       <c r="F41" s="73"/>
-      <c r="G41" t="s">
-        <v>139</v>
-      </c>
-      <c r="H41">
-        <v>76</v>
-      </c>
-      <c r="I41">
-        <v>1.89</v>
+      <c r="G41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H41" s="2">
+        <v>16</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.4</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="71"/>
       <c r="B42" s="71"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="73"/>
       <c r="F42" s="73"/>
-      <c r="G42" t="s">
-        <v>140</v>
-      </c>
-      <c r="H42">
-        <v>39</v>
-      </c>
-      <c r="I42">
-        <v>0.97</v>
+      <c r="G42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H42" s="2">
+        <v>76</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1.89</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="71"/>
       <c r="B43" s="71"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="56"/>
       <c r="E43" s="73"/>
       <c r="F43" s="73"/>
-      <c r="G43" t="s">
-        <v>141</v>
-      </c>
-      <c r="H43">
-        <v>46</v>
-      </c>
-      <c r="I43">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H43" s="2">
+        <v>39</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="71"/>
       <c r="B44" s="71"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" t="s">
+      <c r="C44" s="72"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="2">
+        <v>46</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="74"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H45" s="19">
+        <v>47</v>
+      </c>
+      <c r="I45" s="19">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="H44">
+      <c r="C46" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="H46" s="79">
+        <v>449</v>
+      </c>
+      <c r="I46" s="79">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="H47" s="80">
+        <v>1001</v>
+      </c>
+      <c r="I47" s="80">
+        <v>24.85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="H48" s="80">
+        <v>267</v>
+      </c>
+      <c r="I48" s="80">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="H49" s="80">
+        <v>486</v>
+      </c>
+      <c r="I49" s="80">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="H50" s="80">
+        <v>91</v>
+      </c>
+      <c r="I50" s="80">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H51" s="80">
+        <v>485</v>
+      </c>
+      <c r="I51" s="80">
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="H52" s="80">
+        <v>125</v>
+      </c>
+      <c r="I52" s="80">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="H53" s="80">
+        <v>356</v>
+      </c>
+      <c r="I53" s="80">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="50"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H54" s="80">
+        <v>102</v>
+      </c>
+      <c r="I54" s="80">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="50"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="H55" s="80">
+        <v>32</v>
+      </c>
+      <c r="I55" s="80">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="50"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="H56" s="80">
+        <v>94</v>
+      </c>
+      <c r="I56" s="80">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="50"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="H57" s="80">
+        <v>31</v>
+      </c>
+      <c r="I57" s="80">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="50"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="H58" s="80">
+        <v>62</v>
+      </c>
+      <c r="I58" s="80">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="50"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="H59" s="80">
+        <v>125</v>
+      </c>
+      <c r="I59" s="80">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="23" customFormat="1" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="50"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="H60" s="80">
+        <v>84</v>
+      </c>
+      <c r="I60" s="80">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="H61" s="80">
+        <v>14</v>
+      </c>
+      <c r="I61" s="80">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="50"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="H62" s="80">
+        <v>16</v>
+      </c>
+      <c r="I62" s="80">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="50"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="H63" s="80">
+        <v>76</v>
+      </c>
+      <c r="I63" s="80">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="23" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="H64" s="80">
+        <v>39</v>
+      </c>
+      <c r="I64" s="80">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="50"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="H65" s="80">
+        <v>46</v>
+      </c>
+      <c r="I65" s="80">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="51"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="H66" s="81">
         <v>47</v>
       </c>
-      <c r="I44">
+      <c r="I66" s="81">
         <v>1.17</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="D45" s="35" t="s">
+    <row r="67" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="F45" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="G45" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="H45" s="35">
-        <v>449</v>
-      </c>
-      <c r="I45" s="35">
-        <v>11.15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="H46" s="39">
-        <v>1001</v>
-      </c>
-      <c r="I46" s="39">
-        <v>24.85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="H47" s="39">
-        <v>267</v>
-      </c>
-      <c r="I47" s="39">
-        <v>6.63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="H48" s="39">
-        <v>486</v>
-      </c>
-      <c r="I48" s="39">
-        <v>12.07</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="H49" s="39">
+      <c r="E67" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="F67" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="G67" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H67" s="37">
+        <v>1378</v>
+      </c>
+      <c r="I67" s="37">
+        <v>34.21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="56"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="H68" s="37">
+        <v>330</v>
+      </c>
+      <c r="I68" s="37">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="56"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H69" s="37">
+        <v>79</v>
+      </c>
+      <c r="I69" s="37">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="56"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H70" s="37">
+        <v>80</v>
+      </c>
+      <c r="I70" s="37">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="56"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="H71" s="37">
+        <v>31</v>
+      </c>
+      <c r="I71" s="37">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="56"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H72" s="37">
+        <v>527</v>
+      </c>
+      <c r="I72" s="37">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="56"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H73" s="37">
+        <v>62</v>
+      </c>
+      <c r="I73" s="37">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="56"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="H74" s="37">
+        <v>317</v>
+      </c>
+      <c r="I74" s="37">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="56"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="H75" s="37">
+        <v>45</v>
+      </c>
+      <c r="I75" s="37">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="56"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="H76" s="37">
+        <v>238</v>
+      </c>
+      <c r="I76" s="37">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="56"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="I49" s="39">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="H50" s="39">
+      <c r="H77" s="37">
+        <v>39</v>
+      </c>
+      <c r="I77" s="37">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="56"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H78" s="37">
+        <v>392</v>
+      </c>
+      <c r="I78" s="37">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="56"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="73"/>
+      <c r="G79" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H79" s="37">
+        <v>76</v>
+      </c>
+      <c r="I79" s="37">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="56"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H80" s="37">
+        <v>167</v>
+      </c>
+      <c r="I80" s="37">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="56"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H81" s="37">
+        <v>85</v>
+      </c>
+      <c r="I81" s="37">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="56"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="73"/>
+      <c r="G82" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="H82" s="37">
+        <v>69</v>
+      </c>
+      <c r="I82" s="37">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="56"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H83" s="37">
+        <v>14</v>
+      </c>
+      <c r="I83" s="37">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="56"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H84" s="37">
+        <v>77</v>
+      </c>
+      <c r="I84" s="37">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="56"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="H85" s="37">
+        <v>15</v>
+      </c>
+      <c r="I85" s="37">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="56"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="73"/>
+      <c r="G86" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H86" s="37">
+        <v>6</v>
+      </c>
+      <c r="I86" s="37">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="45"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="H87" s="35">
+        <v>1</v>
+      </c>
+      <c r="I87" s="35">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C88" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D88" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="F88" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="G88" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="H88" s="79">
+        <v>2006</v>
+      </c>
+      <c r="I88" s="79">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="51"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="78"/>
+      <c r="G89" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="H89" s="81">
+        <v>2022</v>
+      </c>
+      <c r="I89" s="81">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F90" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="G90" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="H90" s="34">
+        <v>676</v>
+      </c>
+      <c r="I90" s="34">
+        <v>16.78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="56"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="73"/>
+      <c r="G91" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H91" s="37">
+        <v>920</v>
+      </c>
+      <c r="I91" s="37">
+        <v>22.84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="56"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H92" s="37">
+        <v>839</v>
+      </c>
+      <c r="I92" s="37">
+        <v>20.83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="56"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="73"/>
+      <c r="G93" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="H93" s="37">
         <v>485</v>
       </c>
-      <c r="I50" s="39">
+      <c r="I93" s="37">
         <v>12.04</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="H51" s="39">
-        <v>125</v>
-      </c>
-      <c r="I51" s="39">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="52"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="H52" s="39">
-        <v>356</v>
-      </c>
-      <c r="I52" s="39">
-        <v>8.84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="H53" s="39">
-        <v>102</v>
-      </c>
-      <c r="I53" s="39">
-        <v>2.5299999999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="H54" s="39">
-        <v>32</v>
-      </c>
-      <c r="I54" s="39">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="H55" s="39">
-        <v>94</v>
-      </c>
-      <c r="I55" s="39">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="H56" s="39">
-        <v>31</v>
-      </c>
-      <c r="I56" s="39">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H57" s="39">
-        <v>62</v>
-      </c>
-      <c r="I57" s="39">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="H58" s="39">
-        <v>125</v>
-      </c>
-      <c r="I58" s="39">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="52"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="H59" s="39">
-        <v>84</v>
-      </c>
-      <c r="I59" s="39">
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="52"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="H60" s="39">
-        <v>14</v>
-      </c>
-      <c r="I60" s="39">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="H61" s="39">
-        <v>16</v>
-      </c>
-      <c r="I61" s="39">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="H62" s="39">
-        <v>76</v>
-      </c>
-      <c r="I62" s="39">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H63" s="39">
-        <v>39</v>
-      </c>
-      <c r="I63" s="39">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="H64" s="39">
-        <v>46</v>
-      </c>
-      <c r="I64" s="39">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="53"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="H65" s="36">
-        <v>47</v>
-      </c>
-      <c r="I65" s="36">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="D66" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="F66" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="G66" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="H66" s="34">
-        <v>1378</v>
-      </c>
-      <c r="I66" s="34">
-        <v>34.21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="75"/>
-      <c r="B67" s="75"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="H67" s="34">
-        <v>330</v>
-      </c>
-      <c r="I67" s="34">
-        <v>8.19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="75"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="H68" s="34">
-        <v>79</v>
-      </c>
-      <c r="I68" s="34">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="75"/>
-      <c r="B69" s="75"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="H69" s="34">
-        <v>80</v>
-      </c>
-      <c r="I69" s="34">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="75"/>
-      <c r="B70" s="75"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="63"/>
-      <c r="G70" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="H70" s="34">
-        <v>31</v>
-      </c>
-      <c r="I70" s="34">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="75"/>
-      <c r="B71" s="75"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="63"/>
-      <c r="G71" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="H71" s="34">
-        <v>527</v>
-      </c>
-      <c r="I71" s="34">
-        <v>13.08</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="75"/>
-      <c r="B72" s="75"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="63"/>
-      <c r="G72" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="H72" s="34">
-        <v>62</v>
-      </c>
-      <c r="I72" s="34">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="75"/>
-      <c r="B73" s="75"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="H73" s="34">
-        <v>317</v>
-      </c>
-      <c r="I73" s="34">
-        <v>7.87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="75"/>
-      <c r="B74" s="75"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" s="34">
-        <v>45</v>
-      </c>
-      <c r="I74" s="34">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="75"/>
-      <c r="B75" s="75"/>
-      <c r="C75" s="74"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H75" s="34">
-        <v>238</v>
-      </c>
-      <c r="I75" s="34">
-        <v>5.91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="75"/>
-      <c r="B76" s="75"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="75"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="H76" s="34">
-        <v>39</v>
-      </c>
-      <c r="I76" s="34">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="75"/>
-      <c r="B77" s="75"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="75"/>
-      <c r="F77" s="63"/>
-      <c r="G77" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="H77" s="34">
-        <v>392</v>
-      </c>
-      <c r="I77" s="34">
-        <v>9.73</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="75"/>
-      <c r="B78" s="75"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="75"/>
-      <c r="F78" s="63"/>
-      <c r="G78" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="H78" s="34">
-        <v>76</v>
-      </c>
-      <c r="I78" s="34">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="75"/>
-      <c r="B79" s="75"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="75"/>
-      <c r="E79" s="75"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="H79" s="34">
-        <v>167</v>
-      </c>
-      <c r="I79" s="34">
-        <v>4.1500000000000004</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="75"/>
-      <c r="B80" s="75"/>
-      <c r="C80" s="74"/>
-      <c r="D80" s="75"/>
-      <c r="E80" s="75"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="H80" s="34">
-        <v>85</v>
-      </c>
-      <c r="I80" s="34">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="75"/>
-      <c r="B81" s="75"/>
-      <c r="C81" s="74"/>
-      <c r="D81" s="75"/>
-      <c r="E81" s="75"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H81" s="34">
-        <v>69</v>
-      </c>
-      <c r="I81" s="34">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="75"/>
-      <c r="B82" s="75"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="75"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="H82" s="34">
-        <v>14</v>
-      </c>
-      <c r="I82" s="34">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="75"/>
-      <c r="B83" s="75"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="63"/>
-      <c r="G83" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="H83" s="34">
-        <v>77</v>
-      </c>
-      <c r="I83" s="34">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="75"/>
-      <c r="B84" s="75"/>
-      <c r="C84" s="74"/>
-      <c r="D84" s="75"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="63"/>
-      <c r="G84" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="H84" s="34">
-        <v>15</v>
-      </c>
-      <c r="I84" s="34">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="75"/>
-      <c r="B85" s="75"/>
-      <c r="C85" s="74"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="75"/>
-      <c r="F85" s="63"/>
-      <c r="G85" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="H85" s="34">
-        <v>6</v>
-      </c>
-      <c r="I85" s="34">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="66"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="68"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="H86" s="33">
-        <v>1</v>
-      </c>
-      <c r="I86" s="33">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B87" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C87" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D87" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F87" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="G87" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H87" s="35">
-        <v>2006</v>
-      </c>
-      <c r="I87" s="35">
-        <v>49.8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="53"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="H88" s="36">
-        <v>2022</v>
-      </c>
-      <c r="I88" s="36">
-        <v>50.2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="B89" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D89" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="F89" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="G89" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="H89" s="30">
-        <v>676</v>
-      </c>
-      <c r="I89" s="30">
-        <v>16.78</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="75"/>
-      <c r="B90" s="75"/>
-      <c r="C90" s="75"/>
-      <c r="D90" s="75"/>
-      <c r="E90" s="75"/>
-      <c r="F90" s="63"/>
-      <c r="G90" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H90" s="28">
-        <v>920</v>
-      </c>
-      <c r="I90" s="28">
-        <v>22.84</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="75"/>
-      <c r="B91" s="75"/>
-      <c r="C91" s="75"/>
-      <c r="D91" s="75"/>
-      <c r="E91" s="75"/>
-      <c r="F91" s="63"/>
-      <c r="G91" s="28" t="s">
+    <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="45"/>
+      <c r="B94" s="45"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="H91" s="28">
-        <v>839</v>
-      </c>
-      <c r="I91" s="28">
-        <v>20.83</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="75"/>
-      <c r="B92" s="75"/>
-      <c r="C92" s="75"/>
-      <c r="D92" s="75"/>
-      <c r="E92" s="75"/>
-      <c r="F92" s="63"/>
-      <c r="G92" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="H92" s="28">
-        <v>485</v>
-      </c>
-      <c r="I92" s="28">
-        <v>12.04</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="66"/>
-      <c r="B93" s="66"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="66"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="64"/>
-      <c r="G93" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="H93" s="32">
+      <c r="H94" s="35">
         <v>1108</v>
       </c>
-      <c r="I93" s="32">
+      <c r="I94" s="35">
         <v>27.51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="F89:F93"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="E89:E93"/>
-    <mergeCell ref="C66:C86"/>
-    <mergeCell ref="B66:B86"/>
-    <mergeCell ref="A66:A86"/>
-    <mergeCell ref="D66:D86"/>
-    <mergeCell ref="E66:E86"/>
-    <mergeCell ref="F66:F86"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C32:C44"/>
-    <mergeCell ref="A32:A44"/>
-    <mergeCell ref="B32:B44"/>
-    <mergeCell ref="C45:C65"/>
-    <mergeCell ref="B45:B65"/>
-    <mergeCell ref="A45:A65"/>
-    <mergeCell ref="D32:D44"/>
-    <mergeCell ref="E32:E44"/>
-    <mergeCell ref="F32:F44"/>
+  <mergeCells count="72">
+    <mergeCell ref="D46:D66"/>
+    <mergeCell ref="E46:E66"/>
+    <mergeCell ref="F46:F66"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="E12:E19"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="F25:F27"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="A22:A24"/>
@@ -3029,30 +3085,39 @@
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="E25:E27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="E12:E19"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="F67:F87"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:C45"/>
+    <mergeCell ref="A33:A45"/>
+    <mergeCell ref="B33:B45"/>
+    <mergeCell ref="C46:C66"/>
+    <mergeCell ref="B46:B66"/>
+    <mergeCell ref="A46:A66"/>
+    <mergeCell ref="D33:D45"/>
+    <mergeCell ref="E33:E45"/>
+    <mergeCell ref="F33:F45"/>
+    <mergeCell ref="C67:C87"/>
+    <mergeCell ref="B67:B87"/>
+    <mergeCell ref="A67:A87"/>
+    <mergeCell ref="D67:D87"/>
+    <mergeCell ref="E67:E87"/>
+    <mergeCell ref="F90:F94"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="D90:D94"/>
+    <mergeCell ref="E90:E94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
